--- a/biology/Zoologie/Contradusta/Contradusta.xlsx
+++ b/biology/Zoologie/Contradusta/Contradusta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contradusta est un genre de mollusques gastéropodes de la famille des Cypraeidae (les « porcelaines »). L'espèce type est Contradusta walkeri[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contradusta est un genre de mollusques gastéropodes de la famille des Cypraeidae (les « porcelaines »). L'espèce type est Contradusta walkeri.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (19 mars 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (19 mars 2021) :
 Contradusta bregeriana (Crosse, 1868)
 Contradusta lapillus Poppe, Tagaro &amp; Groh, 2013
 Contradusta walkeri (G. B. Sowerby I, 1832) - espèce type</t>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Christopher P. Meyer, « Molecular systematics of cowries (Gastropoda: Cypraeidae) and diversification patterns in the tropics », Biological Journal of the Linnean Society, Linnean Society of London et OUP, vol. 79, no 3,‎ 1er juillet 2003, p. 401-459 (ISSN 0024-4066 et 1095-8312, DOI 10.1046/J.1095-8312.2003.00197.X, lire en ligne)</t>
         </is>
